--- a/output_LiSTscenarios_Bangladesh.xlsx
+++ b/output_LiSTscenarios_Bangladesh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Epidemiology/Optima/Nutrition/documentation/Countries/bangladesh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Epidemiology/Optima/Nutrition/development/Nutrition/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="32">
   <si>
     <t>Percent of children in different height for age statuses (Stunting) (Total (0-60 months))</t>
   </si>
@@ -123,10 +123,13 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>Breastfeeding promotion</t>
+    <t>Breastfeeding + complementary</t>
   </si>
   <si>
-    <t>Breastfeeding + complementary</t>
+    <t>scale-up breastfeeding promotion</t>
+  </si>
+  <si>
+    <t>scale-up complementary feeding</t>
   </si>
 </sst>
 </file>
@@ -764,11 +767,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2144413968"/>
-        <c:axId val="2142121392"/>
+        <c:axId val="-2101278064"/>
+        <c:axId val="-2108770128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144413968"/>
+        <c:axId val="-2101278064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,7 +781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142121392"/>
+        <c:crossAx val="-2108770128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -786,7 +789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142121392"/>
+        <c:axId val="-2108770128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,7 +800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144413968"/>
+        <c:crossAx val="-2101278064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -1403,11 +1406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142164160"/>
-        <c:axId val="2142167200"/>
+        <c:axId val="2111922672"/>
+        <c:axId val="-2101141776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142164160"/>
+        <c:axId val="2111922672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142167200"/>
+        <c:crossAx val="-2101141776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1425,7 +1428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142167200"/>
+        <c:axId val="-2101141776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142164160"/>
+        <c:crossAx val="2111922672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2057,11 +2060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143496816"/>
-        <c:axId val="2143499856"/>
+        <c:axId val="-2110701408"/>
+        <c:axId val="-2110116640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143496816"/>
+        <c:axId val="-2110701408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143499856"/>
+        <c:crossAx val="-2110116640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2079,7 +2082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143499856"/>
+        <c:axId val="-2110116640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,7 +2093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143496816"/>
+        <c:crossAx val="-2110701408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2709,11 +2712,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2143508416"/>
-        <c:axId val="2143511472"/>
+        <c:axId val="-2101170720"/>
+        <c:axId val="-2111046256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143508416"/>
+        <c:axId val="-2101170720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143511472"/>
+        <c:crossAx val="-2111046256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143511472"/>
+        <c:axId val="-2111046256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,7 +2764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143508416"/>
+        <c:crossAx val="-2101170720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3374,11 +3377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2142428800"/>
-        <c:axId val="2142431840"/>
+        <c:axId val="-2101114368"/>
+        <c:axId val="-2103143872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142428800"/>
+        <c:axId val="-2101114368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142431840"/>
+        <c:crossAx val="-2103143872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3396,7 +3399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142431840"/>
+        <c:axId val="-2103143872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142428800"/>
+        <c:crossAx val="-2101114368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3874,11 +3877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2144584048"/>
-        <c:axId val="2144587024"/>
+        <c:axId val="2121706608"/>
+        <c:axId val="2121715744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2144584048"/>
+        <c:axId val="2121706608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144587024"/>
+        <c:crossAx val="2121715744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3896,7 +3899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2144587024"/>
+        <c:axId val="2121715744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3907,7 +3910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2144584048"/>
+        <c:crossAx val="2121706608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7147,8 +7150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7273,7 +7276,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
         <f>'BF 61-&gt;90'!B43</f>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <f>'CF 20.7-&gt;70.7'!B43</f>
@@ -7403,7 +7406,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <f>'BF 61-90 + CF 20.7-&gt;70.7'!B43</f>
@@ -7475,8 +7478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7601,7 +7604,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <f>'BF 61-&gt;90'!B8+'BF 61-&gt;90'!B7</f>
@@ -7666,7 +7669,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <f>'CF 20.7-&gt;70.7'!B8+'CF 20.7-&gt;70.7'!B7</f>
@@ -7731,7 +7734,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <f>'BF 61-90 + CF 20.7-&gt;70.7'!B8+'BF 61-90 + CF 20.7-&gt;70.7'!B7</f>
